--- a/Documentation/Colorify Budget.xlsx
+++ b/Documentation/Colorify Budget.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Danny/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Danny/Documents/GitHub/Colorify/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1FEAD1-EDE3-544C-8047-0973CEC2F67F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" tabRatio="500"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="19780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$19</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Name of the item</t>
   </si>
@@ -218,19 +219,7 @@
     <t>Clear Acrylic Sheet</t>
   </si>
   <si>
-    <t>Soldering Iron Kit</t>
-  </si>
-  <si>
     <t>Johnston Industrial - http://www.johnstonplastics.com/toronto/</t>
-  </si>
-  <si>
-    <t>8007-0551</t>
-  </si>
-  <si>
-    <t>Pace MBT 350 Multi Channel Rework System with PS-90 Iron, MT-100 Tweezer and SX-100 Desoldering Iron</t>
-  </si>
-  <si>
-    <t>Tequipment.net - https://www.tequipment.net/Pace/8007-0551/Desoldering-Equipment/Rework-Stations/</t>
   </si>
   <si>
     <t>Total owned</t>
@@ -239,11 +228,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -330,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -424,51 +413,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -563,17 +507,17 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -585,10 +529,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -597,9 +541,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -609,68 +550,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,13 +587,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -702,6 +625,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -969,14 +895,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,46 +921,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-    </row>
-    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -1071,48 +997,48 @@
       <c r="L2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-    </row>
-    <row r="3" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>10.27</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>7.95</v>
       </c>
-      <c r="H3" s="16">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
         <v>28.3</v>
       </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
         <v>38.57</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -1151,50 +1077,50 @@
       <c r="L4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-    </row>
-    <row r="5" spans="1:14" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>9.99</v>
       </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
         <v>1.3</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>11.2</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-    </row>
-    <row r="6" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -1231,50 +1157,50 @@
       <c r="L6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-    </row>
-    <row r="7" spans="1:14" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>33.450000000000003</v>
       </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <v>4.3499999999999996</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>37.799999999999997</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-    </row>
-    <row r="8" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
@@ -1311,48 +1237,48 @@
       <c r="L8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-    </row>
-    <row r="9" spans="1:14" s="18" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" s="17" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>8.99</v>
       </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
         <v>1.17</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>10.16</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -1391,50 +1317,50 @@
       <c r="L10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-    </row>
-    <row r="11" spans="1:14" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>39.99</v>
       </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
         <v>5.2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>45.19</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-    </row>
-    <row r="12" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
@@ -1471,150 +1397,114 @@
       <c r="L12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-    </row>
-    <row r="13" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>1.5</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="19">
         <v>7.18</v>
       </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
         <v>1.4</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="20">
         <v>12.17</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2068.1</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>268.85000000000002</v>
-      </c>
-      <c r="K14" s="22">
-        <v>2336.9499999999998</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-    </row>
-    <row r="15" spans="1:14" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="21">
+        <f>SUM(K2:K13)</f>
+        <v>486.26000000000005</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I16" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="28">
-        <f>SUM(K2:K14)</f>
-        <v>2823.21</v>
-      </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-    </row>
-    <row r="17" spans="9:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I17" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="29">
+      <c r="J16" s="33"/>
+      <c r="K16" s="22">
         <f>SUM(K2,K3,K5,K6,K13)</f>
         <v>201.92999999999998</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-    </row>
-    <row r="18" spans="9:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I18" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="29">
-        <f>SUM(K4,K7,K8,K9,K10,K11,K12,K14)</f>
-        <v>2621.2799999999997</v>
-      </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-    </row>
-    <row r="19" spans="9:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="35" t="s">
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="9:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="22">
+        <f>SUM(K4,K7,K8,K9,K10,K11,K12)</f>
+        <v>284.33</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="9:14" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="30">
+      <c r="J18" s="35"/>
+      <c r="K18" s="23">
         <v>1.29</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="9:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
